--- a/raw_data/district_policy_dataset.xlsx
+++ b/raw_data/district_policy_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/53643_icf_com/Documents/Work/work_2022/school_covid_mitigation/cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/53643_icf_com/Documents/Work/work_2022/nscps_district_cases/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_3E5CFF9EC5889C885E075498E38FABE2B98BEE41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958ED51E-34E5-EF4B-9C56-74747F4C5128}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_3E5CFF9EC5889C885E075498E38FABE2B98BEE41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5195C6A3-618D-374F-BCCC-BE93CB5EFD6A}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="26780" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="760" windowWidth="26780" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policies" sheetId="1" r:id="rId1"/>
@@ -7245,10 +7245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7574,9 +7570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -70392,7 +70393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
